--- a/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.00734413537398</v>
+        <v>89.862559613833</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6374160700970785</v>
+        <v>0.6770622632067309</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.982030523483</v>
+        <v>88.89833568151272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.709163415146394</v>
+        <v>0.6902323079587831</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.13058035979755</v>
+        <v>87.94975421139011</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6972833097658165</v>
+        <v>0.7295815012211259</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.99566671030186</v>
+        <v>87.03163850050852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7219993470026409</v>
+        <v>0.7041881390191109</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.03763497108478</v>
+        <v>86.03732968241594</v>
       </c>
       <c r="D6" t="n">
-        <v>0.734225380290392</v>
+        <v>0.6930462050807296</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.93857136145674</v>
+        <v>84.95652153213199</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7885163103704583</v>
+        <v>0.6754200038492975</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.99306039369408</v>
+        <v>84.1093653085403</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7030049539322474</v>
+        <v>0.728193908900206</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.01739937059413</v>
+        <v>82.84831591446009</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6733931199235215</v>
+        <v>0.7835722775713561</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.99930927885795</v>
+        <v>81.89890927406076</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7673116696069655</v>
+        <v>0.6975858992621277</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.05053959266762</v>
+        <v>80.94134872530637</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8309816487416228</v>
+        <v>0.7853483985170973</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.88928123287596</v>
+        <v>79.93649222267092</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7332554729611682</v>
+        <v>0.7431436427796906</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.97159528219873</v>
+        <v>78.90335115344821</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8043424422511469</v>
+        <v>0.818136398640659</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.9293453857693</v>
+        <v>78.00462496981316</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7632735342297524</v>
+        <v>0.6775494706713808</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.95903052205269</v>
+        <v>76.99283124331704</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8028230350040828</v>
+        <v>0.8352863726849084</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.12259137940397</v>
+        <v>76.04924662513208</v>
       </c>
       <c r="D16" t="n">
-        <v>0.762358271736941</v>
+        <v>0.8116436877354971</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.03790448634307</v>
+        <v>75.05199952551726</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7432926747179905</v>
+        <v>0.7962094538401998</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.92438315453191</v>
+        <v>74.02102521866006</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7866263765642294</v>
+        <v>0.9115702023309229</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.90611087786569</v>
+        <v>73.01139840494071</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8606289721860433</v>
+        <v>0.8020862194002152</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.847322223606</v>
+        <v>71.91974727306108</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7947036714491933</v>
+        <v>0.7939457257086747</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.03126973164768</v>
+        <v>71.14761022636755</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7605491249583114</v>
+        <v>0.7846450937386974</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.11249784344359</v>
+        <v>70.16484554268264</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8518542808323357</v>
+        <v>0.870709851187098</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.13183977637617</v>
+        <v>69.03137786437111</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7963890401907994</v>
+        <v>0.8651903764721665</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.98730083623806</v>
+        <v>68.02997155210517</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8909488100461187</v>
+        <v>0.8269565743377658</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.15777493351423</v>
+        <v>67.03418431627034</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8576540086568554</v>
+        <v>0.8533199187748772</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.09972827060814</v>
+        <v>65.9684160721563</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7720939596673009</v>
+        <v>0.9167948466512701</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.07833154634969</v>
+        <v>64.98885834343969</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8563543991250184</v>
+        <v>0.9551288383714301</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.90806888294475</v>
+        <v>63.90703730205093</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9402873311461023</v>
+        <v>0.8549595000845599</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.0110110688388</v>
+        <v>63.00303631462413</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9074658928981625</v>
+        <v>0.872570242790194</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.00167634652936</v>
+        <v>62.05142443677296</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9154425266760217</v>
+        <v>0.9428863212836299</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.98056357665737</v>
+        <v>61.15014485768754</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9864398394252011</v>
+        <v>0.9021429203225735</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.95426396302223</v>
+        <v>60.00368207952141</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9660041071451159</v>
+        <v>1.006523331177226</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.05030158966409</v>
+        <v>58.94208443982043</v>
       </c>
       <c r="D33" t="n">
-        <v>1.003013913381779</v>
+        <v>0.9098396009375767</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.91475747666508</v>
+        <v>57.9056511056806</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9032160329051467</v>
+        <v>0.8873023853247893</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.19324097195586</v>
+        <v>56.90109709388545</v>
       </c>
       <c r="D35" t="n">
-        <v>1.014018338472259</v>
+        <v>0.8969108120222532</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.88413638909132</v>
+        <v>55.98196579447699</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9835955996942627</v>
+        <v>1.084530280673984</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.08968883631125</v>
+        <v>54.81573546818299</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9534640117416879</v>
+        <v>0.8097011211959328</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.99661466033704</v>
+        <v>54.01903550496905</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9697064707108299</v>
+        <v>0.8421065240670704</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.9730868813223</v>
+        <v>53.01377541849063</v>
       </c>
       <c r="D39" t="n">
-        <v>1.053091359713144</v>
+        <v>0.9216864290818078</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.94941315964998</v>
+        <v>51.76075902670411</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9506613293197365</v>
+        <v>1.021610222484168</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.07867388730806</v>
+        <v>51.18090805710549</v>
       </c>
       <c r="D41" t="n">
-        <v>1.00351349312165</v>
+        <v>0.889114547398867</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.12006190503546</v>
+        <v>50.06543932107638</v>
       </c>
       <c r="D42" t="n">
-        <v>0.989881155354969</v>
+        <v>1.029383744306755</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.04734869827887</v>
+        <v>49.0577137309538</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9660834195756971</v>
+        <v>1.008317033081625</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.81603969246703</v>
+        <v>48.10146564410293</v>
       </c>
       <c r="D44" t="n">
-        <v>1.004169546069765</v>
+        <v>1.019154198082162</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.97191271644969</v>
+        <v>47.15154113538684</v>
       </c>
       <c r="D45" t="n">
-        <v>1.057443834198681</v>
+        <v>0.9706498882348448</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.75943685168141</v>
+        <v>45.88919475019607</v>
       </c>
       <c r="D46" t="n">
-        <v>1.164259601919719</v>
+        <v>1.022460585839305</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.8864547466779</v>
+        <v>44.97100613010782</v>
       </c>
       <c r="D47" t="n">
-        <v>1.08431802395401</v>
+        <v>1.084238226332638</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.09142293984126</v>
+        <v>43.77363624395243</v>
       </c>
       <c r="D48" t="n">
-        <v>1.030541001432531</v>
+        <v>0.9813218165491675</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.848308876492</v>
+        <v>43.04129939089131</v>
       </c>
       <c r="D49" t="n">
-        <v>1.125617938389131</v>
+        <v>1.074075585098837</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.77624661715842</v>
+        <v>42.02552957110017</v>
       </c>
       <c r="D50" t="n">
-        <v>1.042915697022358</v>
+        <v>1.044970108445162</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.0543925850228</v>
+        <v>41.12418405337552</v>
       </c>
       <c r="D51" t="n">
-        <v>1.062936070121076</v>
+        <v>1.089214397727001</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.08849807062177</v>
+        <v>40.0913546780797</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0443855321844</v>
+        <v>0.9547444676163663</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.3266583376624</v>
+        <v>38.96698454247566</v>
       </c>
       <c r="D53" t="n">
-        <v>1.197659188294217</v>
+        <v>1.246626695823865</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.92555438352056</v>
+        <v>37.867591678137</v>
       </c>
       <c r="D54" t="n">
-        <v>1.186256711284795</v>
+        <v>1.137550497545578</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.92715508469321</v>
+        <v>36.77701570092913</v>
       </c>
       <c r="D55" t="n">
-        <v>1.031111837221292</v>
+        <v>1.022501744376803</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.9112517783698</v>
+        <v>35.95603494007359</v>
       </c>
       <c r="D56" t="n">
-        <v>1.125638916873638</v>
+        <v>1.201786144500078</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.78892975839916</v>
+        <v>34.95907705458497</v>
       </c>
       <c r="D57" t="n">
-        <v>1.061514721974933</v>
+        <v>1.137060565802252</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.17457569602547</v>
+        <v>33.9824693245808</v>
       </c>
       <c r="D58" t="n">
-        <v>1.085823837078165</v>
+        <v>1.126960319829032</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.90626195916345</v>
+        <v>33.09925284931224</v>
       </c>
       <c r="D59" t="n">
-        <v>1.174847326575677</v>
+        <v>1.04828879483514</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.9461087156619</v>
+        <v>32.20826696641316</v>
       </c>
       <c r="D60" t="n">
-        <v>1.171026991774992</v>
+        <v>1.141284659475393</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.82354357418571</v>
+        <v>30.72460884069196</v>
       </c>
       <c r="D61" t="n">
-        <v>1.18297223520401</v>
+        <v>1.131649157944131</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.2013070947506</v>
+        <v>29.89327127334149</v>
       </c>
       <c r="D62" t="n">
-        <v>1.139102477031659</v>
+        <v>1.142969488324769</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.694913238607</v>
+        <v>28.93438022442695</v>
       </c>
       <c r="D63" t="n">
-        <v>1.248152124416068</v>
+        <v>1.14535851940418</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.26193144970823</v>
+        <v>27.93460622617132</v>
       </c>
       <c r="D64" t="n">
-        <v>1.188950331804342</v>
+        <v>1.130233842869494</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.07930834400653</v>
+        <v>26.98214447296865</v>
       </c>
       <c r="D65" t="n">
-        <v>1.177065904603184</v>
+        <v>1.292811375050968</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.99939845038945</v>
+        <v>26.00868872793042</v>
       </c>
       <c r="D66" t="n">
-        <v>1.084661846982524</v>
+        <v>1.296119906367678</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.92876946616198</v>
+        <v>25.05418720653053</v>
       </c>
       <c r="D67" t="n">
-        <v>1.144982685684249</v>
+        <v>1.104519723438252</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.2482281611447</v>
+        <v>23.98568857623051</v>
       </c>
       <c r="D68" t="n">
-        <v>1.292442053067194</v>
+        <v>1.359247660885929</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.66808408378977</v>
+        <v>22.93282403679379</v>
       </c>
       <c r="D69" t="n">
-        <v>1.229891512782516</v>
+        <v>1.302181240508011</v>
       </c>
     </row>
   </sheetData>
